--- a/data/ScheduleProportions.xlsx
+++ b/data/ScheduleProportions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tamucs-my.sharepoint.com/personal/sohom070994_tamu_edu/Documents/CAPS_Paper3/Data-for-IJOCGithub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="11_F25DC773A252ABDACC1048F959DE7D8A5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B42C0B53-332D-405F-BDCB-B63577E86426}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_F25DC773A252ABDACC1048F959DE7D8A5ADE58F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C267570-8092-4BF9-99A7-E0E6A6009E40}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" firstSheet="4" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7-3" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,12 @@
     <sheet name="9-3" sheetId="7" r:id="rId7"/>
     <sheet name="9-4" sheetId="9" r:id="rId8"/>
     <sheet name="9-5" sheetId="8" r:id="rId9"/>
+    <sheet name="10-4" sheetId="10" r:id="rId10"/>
+    <sheet name="11-4" sheetId="11" r:id="rId11"/>
+    <sheet name="12-4" sheetId="12" r:id="rId12"/>
+    <sheet name="8-6" sheetId="13" r:id="rId13"/>
+    <sheet name="8-7" sheetId="14" r:id="rId14"/>
+    <sheet name="8-8" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="3">
   <si>
     <t>Week</t>
   </si>
@@ -88,8 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -384,13 +389,13 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -406,7 +411,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -417,7 +422,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -428,7 +433,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -439,7 +444,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -450,7 +455,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -461,7 +466,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -472,7 +477,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -483,7 +488,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -494,7 +499,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -505,7 +510,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -516,7 +521,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -527,7 +532,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -538,7 +543,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -549,7 +554,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -560,7 +565,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -571,7 +576,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -582,7 +587,1351 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E2D34D-0287-411E-A047-F26549B31333}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.15</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.15</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.15</v>
+      </c>
+      <c r="C8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.15</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.125</v>
+      </c>
+      <c r="C10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.125</v>
+      </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA77A4E-4CD6-4441-A6AF-C4D29341BBF8}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.15</v>
+      </c>
+      <c r="C2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.15</v>
+      </c>
+      <c r="C8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.125</v>
+      </c>
+      <c r="C10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.125</v>
+      </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.125</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB3E318-25E3-4ACF-8569-7683AD592942}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+      <c r="C6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C8">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
+      </c>
+      <c r="C11">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.125</v>
+      </c>
+      <c r="C12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.05</v>
+      </c>
+      <c r="C14">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.05</v>
+      </c>
+      <c r="C15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD01308D-42A4-481A-BFC8-8429BA7F1278}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.125</v>
+      </c>
+      <c r="C3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.125</v>
+      </c>
+      <c r="C7">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.125</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBAD89E1-615B-46AF-BE15-1753EE2AE924}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.125</v>
+      </c>
+      <c r="C3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.125</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.125</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B1D1E-3756-409F-9086-7F0475709F30}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.125</v>
+      </c>
+      <c r="C3">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.125</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.125</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C12">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -608,18 +1957,18 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -630,7 +1979,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
@@ -641,7 +1990,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
@@ -652,7 +2001,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
@@ -663,7 +2012,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
@@ -674,7 +2023,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
@@ -685,7 +2034,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
@@ -696,7 +2045,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
@@ -707,7 +2056,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
@@ -718,7 +2067,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
@@ -729,7 +2078,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
@@ -740,7 +2089,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
@@ -751,7 +2100,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
@@ -762,7 +2111,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
@@ -773,7 +2122,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
@@ -784,7 +2133,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
@@ -795,7 +2144,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
@@ -806,7 +2155,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
@@ -830,216 +2179,213 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0.125</v>
+      </c>
+      <c r="C3">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C12">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1057,216 +2403,213 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0.125</v>
+      </c>
+      <c r="C3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4">
+        <v>0.125</v>
+      </c>
+      <c r="C4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>0.125</v>
+      </c>
+      <c r="C7">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0.125</v>
+      </c>
+      <c r="C9">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1508,216 +2851,213 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3">
+        <v>0.125</v>
+      </c>
+      <c r="C3">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0.125</v>
+      </c>
+      <c r="C9">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C12">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1735,216 +3075,213 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0.15</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0.125</v>
+      </c>
+      <c r="C9">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0.125</v>
+      </c>
+      <c r="C10">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0.125</v>
+      </c>
+      <c r="C11">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1962,216 +3299,213 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0.15</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>0.15</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6">
+        <v>0.125</v>
+      </c>
+      <c r="C6">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9">
         <v>0.15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0.125</v>
+      </c>
+      <c r="C10">
         <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
         <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -2184,221 +3518,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE18685-7F83-4771-A150-0075E0FE1E64}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="16384" width="9.06640625" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+      <c r="C2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>0.15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
         <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5">
+        <v>0.125</v>
+      </c>
+      <c r="C5">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>0.15</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>0.15</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8">
+        <v>0.125</v>
+      </c>
+      <c r="C8">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9">
+        <v>0.125</v>
+      </c>
+      <c r="C9">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>0.125</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10">
+        <v>0.125</v>
+      </c>
+      <c r="C10">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
         <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C14" s="1">
+      <c r="B14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14">
         <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C15" s="1">
+      <c r="B15">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C15">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C16" s="1">
+      <c r="B16">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C16">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="B17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C17">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="C19" s="1">
+      <c r="B19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C19">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
